--- a/Cleaned Data/cases_by_age_mx.xlsx
+++ b/Cleaned Data/cases_by_age_mx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosparedes/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C792564-8428-984B-BB88-67ADF3CEBE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11B25ABA-93C6-B84A-AB7A-C8FECEC4649D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="460" windowWidth="16140" windowHeight="16200" xr2:uid="{76244051-ABCC-2840-BD5D-27CBA6ECB9C6}"/>
+    <workbookView xWindow="11080" yWindow="460" windowWidth="16140" windowHeight="16200" xr2:uid="{76244051-ABCC-2840-BD5D-27CBA6ECB9C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Cleaned Data/cases_by_age_mx.xlsx
+++ b/Cleaned Data/cases_by_age_mx.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosparedes/covid-data-challenge/Cleaned Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11B25ABA-93C6-B84A-AB7A-C8FECEC4649D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932FE56-DF1E-A84C-9EF7-2F4360B0CA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="460" windowWidth="16140" windowHeight="16200" xr2:uid="{76244051-ABCC-2840-BD5D-27CBA6ECB9C6}"/>
+    <workbookView xWindow="1440" yWindow="680" windowWidth="17840" windowHeight="16200" xr2:uid="{76244051-ABCC-2840-BD5D-27CBA6ECB9C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Men</t>
   </si>
@@ -103,6 +105,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Risk Score</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
   </si>
 </sst>
 </file>
@@ -164,6 +172,1127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>COVID-19 Risk Score for Age in Mexico</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Risk Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0 - 4 Years</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 - 9 Years</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 -14 Years</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 - 19 Years</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 - 24 Years</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 - 29 Years</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30 - 34 Years</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35 39 Years</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40 - 44 Years</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45 -49 Years</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50 - 54 Years</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55 - 59 years</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60 - 64 Years</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65 - 69 Years</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70 - 74 Years</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75- 79 Years</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80 - 84 Years</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85 - 89 Years</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90 - 94 Years</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95 -99 Years</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.3268178164512552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5906324559500877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6769970782244794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.25761384079513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.399402886050751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.318294907944932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.97575819436824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.700269211630967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.555405284713629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.50722788573178</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.231943044515603</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.511476581139874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.211656480855353</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.039718284700868</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.29323653622874</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.324061905916276</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.7124283909820486</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3731451828980439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68132232670298687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C081-3544-8D89-8F4696BD834D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="877676464"/>
+        <c:axId val="828542688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="877676464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age Categories</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828542688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="828542688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Risk Levels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877676464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>72570</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>151103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>682624</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>198793</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85BA2EA-F948-CC4B-B6B3-87800D08535F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,18 +1592,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA6408D-3C13-E341-9A71-6DDB08D2FBDA}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -487,8 +1617,17 @@
       <c r="D1" t="s">
         <v>23</v>
       </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -502,8 +1641,15 @@
         <f>SUM(B2:C2)</f>
         <v>4175</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>D2*G9</f>
+        <v>5.3268178164512552</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -517,8 +1663,15 @@
         <f t="shared" ref="D3:D21" si="0">SUM(B3:C3)</f>
         <v>3598</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f>D3*G9</f>
+        <v>4.5906324559500877</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -532,8 +1685,15 @@
         <f t="shared" si="0"/>
         <v>6017</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <f>D4*G9</f>
+        <v>7.6769970782244794</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,8 +1707,15 @@
         <f t="shared" si="0"/>
         <v>13526</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <f>D5*G9</f>
+        <v>17.25761384079513</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -562,8 +1729,15 @@
         <f t="shared" si="0"/>
         <v>37934</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <f>D6*G9</f>
+        <v>48.399402886050751</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -577,8 +1751,15 @@
         <f t="shared" si="0"/>
         <v>70005</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f>D7*G9</f>
+        <v>89.318294907944932</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -592,8 +1773,15 @@
         <f t="shared" si="0"/>
         <v>78358</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <f>D8*G9</f>
+        <v>99.97575819436824</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -607,8 +1795,19 @@
         <f t="shared" si="0"/>
         <v>78377</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f>D9*G9</f>
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <f>100/D9</f>
+        <v>1.2758845069344323E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -622,8 +1821,15 @@
         <f t="shared" si="0"/>
         <v>75007</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <f>D10*G9</f>
+        <v>95.700269211630967</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -634,11 +1840,18 @@
         <v>36798</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:C11)</f>
         <v>76461</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f>D11*G9</f>
+        <v>97.555405284713629</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -652,8 +1865,15 @@
         <f t="shared" si="0"/>
         <v>67018</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <f>D12*G9</f>
+        <v>85.50722788573178</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -667,8 +1887,15 @@
         <f t="shared" si="0"/>
         <v>57397</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <f>D13*G9</f>
+        <v>73.231943044515603</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -682,8 +1909,15 @@
         <f t="shared" si="0"/>
         <v>44292</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <f>D14*G9</f>
+        <v>56.511476581139874</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -697,8 +1931,15 @@
         <f t="shared" si="0"/>
         <v>33868</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <f>D15*G9</f>
+        <v>43.211656480855353</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -712,8 +1953,15 @@
         <f t="shared" si="0"/>
         <v>24328</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <f>D16*G9</f>
+        <v>31.039718284700868</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -727,8 +1975,15 @@
         <f t="shared" si="0"/>
         <v>16689</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <f>D17*G9</f>
+        <v>21.29323653622874</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -739,11 +1994,18 @@
         <v>4588</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:C18)</f>
         <v>10443</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <f>D18*G9</f>
+        <v>13.324061905916276</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -757,8 +2019,15 @@
         <f t="shared" si="0"/>
         <v>5261</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <f>D19*G9</f>
+        <v>6.7124283909820486</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -772,8 +2041,15 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <f>D20*G9</f>
+        <v>2.3731451828980439</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -787,8 +2063,16 @@
         <f t="shared" si="0"/>
         <v>534</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <f>D21*G9</f>
+        <v>0.68132232670298687</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cleaned Data/cases_by_age_mx.xlsx
+++ b/Cleaned Data/cases_by_age_mx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annie/Documents/GitHub/covid-data-challenge/Cleaned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932FE56-DF1E-A84C-9EF7-2F4360B0CA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE00D071-FA37-404F-86B1-57C57D094666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="680" windowWidth="17840" windowHeight="16200" xr2:uid="{76244051-ABCC-2840-BD5D-27CBA6ECB9C6}"/>
   </bookViews>
@@ -1259,15 +1259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>72570</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>151103</xdr:rowOff>
+      <xdr:colOff>700100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>682624</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>198793</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522941</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1594,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA6408D-3C13-E341-9A71-6DDB08D2FBDA}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
